--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3644023.964275003</v>
+        <v>3640011.354261011</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>65.33825739391348</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.80393931203998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>121.1745395272861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>238.1138357058014</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>313.449563134928</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>14.95687341106361</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,7 +992,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>147.7454980681964</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493341</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>174.9802691351845</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>85.1123920812839</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.013833414418</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D13" t="n">
-        <v>107.5034532829755</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.99884436925737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.2105855891467</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101218</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>114.2935157990515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>223.0290479864225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,13 +2608,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.8567702508375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>56.10180801516488</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.76284745947842</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>13.37642554686322</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.3661834507345</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>139.6152205166461</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>124.8808320771208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>52.10645541514074</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1329.547110979149</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>971.2814123723983</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>585.493159774154</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>174.5072549845465</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.9106412072199</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>188.9106412072199</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>188.9106412072199</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>699.1203903877106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W4" t="n">
-        <v>409.70322035075</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X4" t="n">
-        <v>409.70322035075</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.9106412072199</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.76669086687</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.76669086687</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>490.1327875659772</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.376265094905</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,7 +4816,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2689.349850666033</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2336.581195395918</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>1963.115437134838</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.976105159027</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>745.0844353622948</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>523.3178199318208</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>234.2149530574645</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>234.2149530574645</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W10" t="n">
-        <v>234.2149530574645</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X10" t="n">
-        <v>234.2149530574645</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,58 +5020,58 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180517</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851658</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199801</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993914</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956953</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058936</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154056</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.97827305563</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.97827305563</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3200.825397924058</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C25" t="n">
-        <v>3031.889214996151</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583816</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001422</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503512</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3382.473862754298</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3382.473862754298</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3023.484406741617</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741617</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.37685307644</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420638</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.617138214751</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.199968177791</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3205.132871571857</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811342</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532271</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408912</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408912</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429807</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611857</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611857</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511374</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>336.3048548543961</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>189.4149073564858</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>189.4149073564858</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613763</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7259,16 +7259,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>920.6398131926233</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7490,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,22 +7727,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300683</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>228.5361496476752</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D13" t="n">
-        <v>41.11201973523683</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.5858089828374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>111.2104624337847</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>172.2294825375396</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2.680607402614839</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.7278831012573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.0358353086631</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8218058926165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>126.9182872993607</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.81829093850962</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.000252501566251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>127.2568112467072</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>93.3145926077905</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710683</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055053</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>6.233536763689838e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.160688399429341e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189185</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189185</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.74902197</v>
+        <v>-750285.7490219697</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056229</v>
+        <v>578458.9967056235</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056232</v>
+        <v>578458.9967056231</v>
       </c>
       <c r="E6" t="n">
-        <v>324207.694102351</v>
+        <v>323860.3148479944</v>
       </c>
       <c r="F6" t="n">
-        <v>649620.1559097064</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="G6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553501</v>
       </c>
       <c r="H6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553495</v>
       </c>
       <c r="I6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.77665535</v>
       </c>
       <c r="J6" t="n">
-        <v>432088.9535124294</v>
+        <v>431741.5742580722</v>
       </c>
       <c r="K6" t="n">
-        <v>649620.1559097067</v>
+        <v>649272.7766553495</v>
       </c>
       <c r="L6" t="n">
-        <v>649620.1559097066</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="M6" t="n">
-        <v>564565.1279741948</v>
+        <v>564217.7487198379</v>
       </c>
       <c r="N6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="O6" t="n">
-        <v>649620.155909707</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="P6" t="n">
-        <v>649620.155909707</v>
+        <v>649272.7766553498</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.200860499286676e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.200860499286676e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.200860499286676e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>345.58346825954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.4339993440136</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.25942311928308</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>14.02380761802661</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.23347848575497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>312.7953850590713</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>138.4663401374165</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.4543446923773</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>152.7719893349504</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>104.656633250158</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>137.12380990941</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.272339087573087e-15</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-5.628150201704415e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>351.5042614518786</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>502.2268148619681</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>472.97362791687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>208.9080170074342</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36053,16 +36053,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>359.6305704175236</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>330.3773834724256</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3640011.354261011</v>
+        <v>3641771.884563796</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630903.030217162</v>
+        <v>7630903.03021716</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>65.33825739391348</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>246.162037583577</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>93.35882079148007</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>238.1138357058014</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>87.56115536271626</v>
       </c>
       <c r="V5" t="n">
-        <v>14.95687341106361</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,7 +992,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>100.2230060949672</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>333.9317039773917</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.4217010493341</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>115.013833414418</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
-        <v>56.10180801516488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.4044447618827</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282037</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979149</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>971.2814123723983</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>585.493159774154</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5072549845465</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2713.136153598409</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2360.367498328294</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>680.3679798527295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>680.3679798527295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>680.3679798527295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.3679798527295</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2795.806654315204</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2443.037999045089</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>481.6674995314927</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4758,19 +4758,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,13 +4816,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4895,7 +4895,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4998,16 +4998,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>804.7114165106916</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>515.2942464737309</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5178,22 +5178,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5287,40 +5287,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5430,10 +5430,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7806,37 +7806,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1882.204779583153</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
-        <v>196.0358353086631</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038614</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610405</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>766789.269705506</v>
@@ -26328,10 +26328,10 @@
         <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="I2" t="n">
         <v>766789.269705506</v>
@@ -26343,19 +26343,19 @@
         <v>766789.2697055056</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055055</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26426,7 +26426,7 @@
         <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219697</v>
+        <v>-750285.7490219696</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056235</v>
+        <v>578458.996705623</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056231</v>
+        <v>578458.9967056232</v>
       </c>
       <c r="E6" t="n">
-        <v>323860.3148479944</v>
+        <v>324172.9561769157</v>
       </c>
       <c r="F6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.417984271</v>
       </c>
       <c r="G6" t="n">
-        <v>649272.7766553501</v>
+        <v>649585.417984271</v>
       </c>
       <c r="H6" t="n">
-        <v>649272.7766553495</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="I6" t="n">
-        <v>649272.77665535</v>
+        <v>649585.4179842714</v>
       </c>
       <c r="J6" t="n">
-        <v>431741.5742580722</v>
+        <v>432054.2155869936</v>
       </c>
       <c r="K6" t="n">
-        <v>649272.7766553495</v>
+        <v>649585.4179842708</v>
       </c>
       <c r="L6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="M6" t="n">
-        <v>564217.7487198379</v>
+        <v>564530.3900487589</v>
       </c>
       <c r="N6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842708</v>
       </c>
       <c r="O6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.417984271</v>
       </c>
       <c r="P6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842707</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>345.58346825954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>81.59022088655789</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>72.66698746754815</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>14.02380761802661</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>163.4340165961857</v>
       </c>
       <c r="V5" t="n">
-        <v>312.7953850590713</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>46.21095655160198</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20.75133764329127</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.4543446923773</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>137.12380990941</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31615,10 +31615,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002926</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>639.47033547631</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
@@ -35497,16 +35497,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
